--- a/SchedulingData/static8/pso/scheduling1_8.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_8.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.2</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>25.92</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.9</v>
+        <v>65.38</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.1</v>
+        <v>57.6</v>
       </c>
       <c r="E4" t="n">
-        <v>27.28</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>122.1</v>
+        <v>81.78</v>
       </c>
       <c r="E5" t="n">
-        <v>20.6</v>
+        <v>25.952</v>
       </c>
     </row>
     <row r="6">
@@ -542,150 +542,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>79.72</v>
+        <v>62.12</v>
       </c>
       <c r="E6" t="n">
-        <v>26.688</v>
+        <v>26.448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.72</v>
+        <v>81.78</v>
       </c>
       <c r="D7" t="n">
-        <v>129.66</v>
+        <v>120.94</v>
       </c>
       <c r="E7" t="n">
-        <v>22.824</v>
+        <v>22.676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122.1</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>184.84</v>
+        <v>84.5</v>
       </c>
       <c r="E8" t="n">
-        <v>16.456</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>125.14</v>
+        <v>102.2</v>
       </c>
       <c r="E9" t="n">
-        <v>23.276</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>65.38</v>
       </c>
       <c r="D10" t="n">
-        <v>77.38</v>
+        <v>127.18</v>
       </c>
       <c r="E10" t="n">
-        <v>25.912</v>
+        <v>22.072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.38</v>
+        <v>127.18</v>
       </c>
       <c r="D11" t="n">
-        <v>153</v>
+        <v>179.38</v>
       </c>
       <c r="E11" t="n">
-        <v>22.48</v>
+        <v>18.472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153</v>
+        <v>57.6</v>
       </c>
       <c r="D12" t="n">
-        <v>213.1</v>
+        <v>133.12</v>
       </c>
       <c r="E12" t="n">
-        <v>18.1</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.12</v>
       </c>
       <c r="D13" t="n">
-        <v>80.7</v>
+        <v>123.32</v>
       </c>
       <c r="E13" t="n">
-        <v>25.58</v>
+        <v>21.468</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80.7</v>
+        <v>102.2</v>
       </c>
       <c r="D14" t="n">
-        <v>137</v>
+        <v>151.34</v>
       </c>
       <c r="E14" t="n">
-        <v>22.06</v>
+        <v>22.136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125.14</v>
+        <v>123.32</v>
       </c>
       <c r="D15" t="n">
-        <v>182.34</v>
+        <v>178.88</v>
       </c>
       <c r="E15" t="n">
-        <v>19.676</v>
+        <v>17.552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>184.84</v>
+        <v>84.5</v>
       </c>
       <c r="D16" t="n">
-        <v>232.04</v>
+        <v>135.72</v>
       </c>
       <c r="E16" t="n">
-        <v>12.376</v>
+        <v>20.388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>129.66</v>
+        <v>151.34</v>
       </c>
       <c r="D17" t="n">
-        <v>174.18</v>
+        <v>227.64</v>
       </c>
       <c r="E17" t="n">
-        <v>19.992</v>
+        <v>16.616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>232.04</v>
+        <v>135.72</v>
       </c>
       <c r="D18" t="n">
-        <v>298.76</v>
+        <v>212.36</v>
       </c>
       <c r="E18" t="n">
-        <v>8.824</v>
+        <v>15.344</v>
       </c>
     </row>
     <row r="19">
@@ -789,307 +789,307 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174.18</v>
+        <v>178.88</v>
       </c>
       <c r="D19" t="n">
-        <v>244.7</v>
+        <v>239.5</v>
       </c>
       <c r="E19" t="n">
-        <v>16.56</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>213.1</v>
+        <v>133.12</v>
       </c>
       <c r="D20" t="n">
-        <v>251.44</v>
+        <v>191.8</v>
       </c>
       <c r="E20" t="n">
-        <v>15.396</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>77.2</v>
+        <v>239.5</v>
       </c>
       <c r="D21" t="n">
-        <v>138.98</v>
+        <v>304.9</v>
       </c>
       <c r="E21" t="n">
-        <v>21.872</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>182.34</v>
+        <v>120.94</v>
       </c>
       <c r="D22" t="n">
-        <v>267.02</v>
+        <v>196.48</v>
       </c>
       <c r="E22" t="n">
-        <v>15.308</v>
+        <v>19.712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>137</v>
+        <v>304.9</v>
       </c>
       <c r="D23" t="n">
-        <v>193.84</v>
+        <v>376.1</v>
       </c>
       <c r="E23" t="n">
-        <v>17.016</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>138.98</v>
+        <v>212.36</v>
       </c>
       <c r="D24" t="n">
-        <v>195.38</v>
+        <v>277.4</v>
       </c>
       <c r="E24" t="n">
-        <v>17.852</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>244.7</v>
+        <v>179.38</v>
       </c>
       <c r="D25" t="n">
-        <v>310.06</v>
+        <v>228.68</v>
       </c>
       <c r="E25" t="n">
-        <v>12.624</v>
+        <v>15.172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>251.44</v>
+        <v>227.64</v>
       </c>
       <c r="D26" t="n">
-        <v>313.34</v>
+        <v>273.16</v>
       </c>
       <c r="E26" t="n">
-        <v>11.316</v>
+        <v>13.704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>313.34</v>
+        <v>273.16</v>
       </c>
       <c r="D27" t="n">
-        <v>408.96</v>
+        <v>344.86</v>
       </c>
       <c r="E27" t="n">
-        <v>8.324</v>
+        <v>9.624000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>298.76</v>
+        <v>228.68</v>
       </c>
       <c r="D28" t="n">
-        <v>374.06</v>
+        <v>291.36</v>
       </c>
       <c r="E28" t="n">
-        <v>4.904</v>
+        <v>10.524</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>408.96</v>
+        <v>196.48</v>
       </c>
       <c r="D29" t="n">
-        <v>483.76</v>
+        <v>251.52</v>
       </c>
       <c r="E29" t="n">
-        <v>2.984</v>
+        <v>16.808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>310.06</v>
+        <v>191.8</v>
       </c>
       <c r="D30" t="n">
-        <v>365.58</v>
+        <v>270.78</v>
       </c>
       <c r="E30" t="n">
-        <v>9.192</v>
+        <v>15.432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>374.06</v>
+        <v>277.4</v>
       </c>
       <c r="D31" t="n">
-        <v>447.62</v>
+        <v>317.1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.628</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>447.62</v>
+        <v>317.1</v>
       </c>
       <c r="D32" t="n">
-        <v>545.66</v>
+        <v>373.34</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>545.66</v>
+        <v>376.1</v>
       </c>
       <c r="D33" t="n">
-        <v>625.36</v>
+        <v>441.64</v>
       </c>
       <c r="E33" t="n">
-        <v>27.16</v>
+        <v>3.716</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>267.02</v>
+        <v>251.52</v>
       </c>
       <c r="D34" t="n">
-        <v>317.48</v>
+        <v>300.88</v>
       </c>
       <c r="E34" t="n">
-        <v>11.392</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>483.76</v>
+        <v>441.64</v>
       </c>
       <c r="D35" t="n">
-        <v>544.79</v>
+        <v>506.21</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,40 +1108,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>544.79</v>
+        <v>506.21</v>
       </c>
       <c r="D36" t="n">
-        <v>597.67</v>
+        <v>577.17</v>
       </c>
       <c r="E36" t="n">
-        <v>26.412</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>195.38</v>
+        <v>373.34</v>
       </c>
       <c r="D37" t="n">
-        <v>256.38</v>
+        <v>438.66</v>
       </c>
       <c r="E37" t="n">
-        <v>14.372</v>
+        <v>2.164</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>317.48</v>
+        <v>291.36</v>
       </c>
       <c r="D38" t="n">
-        <v>387.48</v>
+        <v>346.46</v>
       </c>
       <c r="E38" t="n">
-        <v>7.492</v>
+        <v>6.144</v>
       </c>
     </row>
     <row r="39">
@@ -1169,169 +1169,169 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>625.36</v>
+        <v>300.88</v>
       </c>
       <c r="D39" t="n">
-        <v>697.6799999999999</v>
+        <v>376.2</v>
       </c>
       <c r="E39" t="n">
-        <v>23.508</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>193.84</v>
+        <v>346.46</v>
       </c>
       <c r="D40" t="n">
-        <v>255.44</v>
+        <v>405.88</v>
       </c>
       <c r="E40" t="n">
-        <v>11.496</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>597.67</v>
+        <v>344.86</v>
       </c>
       <c r="D41" t="n">
-        <v>668.51</v>
+        <v>407.26</v>
       </c>
       <c r="E41" t="n">
-        <v>23.448</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>255.44</v>
+        <v>438.66</v>
       </c>
       <c r="D42" t="n">
-        <v>321.44</v>
+        <v>506.23</v>
       </c>
       <c r="E42" t="n">
-        <v>6.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>697.6799999999999</v>
+        <v>506.23</v>
       </c>
       <c r="D43" t="n">
-        <v>757.62</v>
+        <v>581.9299999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>20.604</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>321.44</v>
+        <v>577.17</v>
       </c>
       <c r="D44" t="n">
-        <v>394.54</v>
+        <v>634.35</v>
       </c>
       <c r="E44" t="n">
-        <v>2.316</v>
+        <v>21.976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>387.48</v>
+        <v>270.78</v>
       </c>
       <c r="D45" t="n">
-        <v>464.98</v>
+        <v>313.7</v>
       </c>
       <c r="E45" t="n">
-        <v>3.852</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>668.51</v>
+        <v>634.35</v>
       </c>
       <c r="D46" t="n">
-        <v>709.35</v>
+        <v>675.89</v>
       </c>
       <c r="E46" t="n">
-        <v>20.984</v>
+        <v>18.952</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>256.38</v>
+        <v>376.2</v>
       </c>
       <c r="D47" t="n">
-        <v>315.42</v>
+        <v>425.5</v>
       </c>
       <c r="E47" t="n">
-        <v>10.588</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="48">
@@ -1340,188 +1340,188 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>394.54</v>
+        <v>407.26</v>
       </c>
       <c r="D48" t="n">
-        <v>471.81</v>
+        <v>466.16</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>2.204</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>471.81</v>
+        <v>425.5</v>
       </c>
       <c r="D49" t="n">
-        <v>522.73</v>
+        <v>493.24</v>
       </c>
       <c r="E49" t="n">
-        <v>27.088</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>365.58</v>
+        <v>493.24</v>
       </c>
       <c r="D50" t="n">
-        <v>421.24</v>
+        <v>577.8099999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>5.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>421.24</v>
+        <v>313.7</v>
       </c>
       <c r="D51" t="n">
-        <v>500.42</v>
+        <v>395.9</v>
       </c>
       <c r="E51" t="n">
-        <v>1.448</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>500.42</v>
+        <v>577.8099999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>579.42</v>
+        <v>638.21</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>464.98</v>
+        <v>395.9</v>
       </c>
       <c r="D53" t="n">
-        <v>534.08</v>
+        <v>437.7</v>
       </c>
       <c r="E53" t="n">
-        <v>0.552</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>534.08</v>
+        <v>581.9299999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>629.38</v>
+        <v>652.9299999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>579.42</v>
+        <v>405.88</v>
       </c>
       <c r="D55" t="n">
-        <v>625.9400000000001</v>
+        <v>464.96</v>
       </c>
       <c r="E55" t="n">
-        <v>26.048</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>625.9400000000001</v>
+        <v>464.96</v>
       </c>
       <c r="D56" t="n">
-        <v>672.84</v>
+        <v>531.91</v>
       </c>
       <c r="E56" t="n">
-        <v>23.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>315.42</v>
+        <v>652.9299999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>370.02</v>
+        <v>692.41</v>
       </c>
       <c r="E57" t="n">
-        <v>6.748</v>
+        <v>19.292</v>
       </c>
     </row>
     <row r="58">
@@ -1530,131 +1530,131 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>757.62</v>
+        <v>638.21</v>
       </c>
       <c r="D58" t="n">
-        <v>793.0599999999999</v>
+        <v>702.63</v>
       </c>
       <c r="E58" t="n">
-        <v>17.7</v>
+        <v>21.828</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>522.73</v>
+        <v>531.91</v>
       </c>
       <c r="D59" t="n">
-        <v>585.41</v>
+        <v>584.79</v>
       </c>
       <c r="E59" t="n">
-        <v>22.44</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>672.84</v>
+        <v>584.79</v>
       </c>
       <c r="D60" t="n">
-        <v>729.08</v>
+        <v>675.05</v>
       </c>
       <c r="E60" t="n">
-        <v>19.484</v>
+        <v>22.476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>585.41</v>
+        <v>675.05</v>
       </c>
       <c r="D61" t="n">
-        <v>639.5700000000001</v>
+        <v>718.29</v>
       </c>
       <c r="E61" t="n">
-        <v>18.644</v>
+        <v>19.772</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>639.5700000000001</v>
+        <v>675.89</v>
       </c>
       <c r="D62" t="n">
-        <v>688.95</v>
+        <v>752.09</v>
       </c>
       <c r="E62" t="n">
-        <v>15.836</v>
+        <v>15.432</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>370.02</v>
+        <v>466.16</v>
       </c>
       <c r="D63" t="n">
-        <v>462.92</v>
+        <v>543.75</v>
       </c>
       <c r="E63" t="n">
-        <v>2.548</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>793.0599999999999</v>
+        <v>543.75</v>
       </c>
       <c r="D64" t="n">
-        <v>841.9400000000001</v>
+        <v>607.65</v>
       </c>
       <c r="E64" t="n">
-        <v>14.452</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="65">
@@ -1663,36 +1663,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>688.95</v>
+        <v>607.65</v>
       </c>
       <c r="D65" t="n">
-        <v>735.49</v>
+        <v>685.95</v>
       </c>
       <c r="E65" t="n">
-        <v>12.812</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>629.38</v>
+        <v>437.7</v>
       </c>
       <c r="D66" t="n">
-        <v>664.46</v>
+        <v>502.36</v>
       </c>
       <c r="E66" t="n">
-        <v>27.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -1701,93 +1701,93 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>462.92</v>
+        <v>502.36</v>
       </c>
       <c r="D67" t="n">
-        <v>544.62</v>
+        <v>587.0599999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>544.62</v>
+        <v>685.95</v>
       </c>
       <c r="D68" t="n">
-        <v>611.72</v>
+        <v>755.51</v>
       </c>
       <c r="E68" t="n">
-        <v>26.44</v>
+        <v>18.744</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>664.46</v>
+        <v>587.0599999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>723.66</v>
+        <v>655.2</v>
       </c>
       <c r="E69" t="n">
-        <v>23.412</v>
+        <v>23.456</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>723.66</v>
+        <v>755.51</v>
       </c>
       <c r="D70" t="n">
-        <v>771.8</v>
+        <v>805.45</v>
       </c>
       <c r="E70" t="n">
-        <v>20.708</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>735.49</v>
+        <v>702.63</v>
       </c>
       <c r="D71" t="n">
-        <v>775.45</v>
+        <v>754.0700000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>9.956</v>
+        <v>17.824</v>
       </c>
     </row>
   </sheetData>
